--- a/files/danone casa sud.xlsx
+++ b/files/danone casa sud.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youne\Desktop\Danone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youne\Desktop\DDSClasses\DDS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9869147-B742-4741-AC56-BDB020C20B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84598C87-4539-411E-93DB-C5C99348E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="835">
   <si>
     <t>DEPOT CASA SUD</t>
   </si>
@@ -2542,6 +2542,9 @@
   </si>
   <si>
     <t>Type camion</t>
+  </si>
+  <si>
+    <t>Adresse</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -4148,7 +4151,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -5052,7 +5055,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>115</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>279</v>
       </c>
@@ -9933,7 +9936,7 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
     </row>
-    <row r="152" spans="1:17" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>282</v>
       </c>
@@ -10007,7 +10010,7 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
     </row>
-    <row r="154" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>282</v>
       </c>
@@ -10044,7 +10047,7 @@
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
     </row>
-    <row r="155" spans="1:17" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
         <v>282</v>
       </c>
@@ -10229,7 +10232,7 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
     </row>
-    <row r="160" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>282</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
@@ -11808,7 +11811,7 @@
       <c r="Z16" s="75"/>
       <c r="AA16" s="75"/>
     </row>
-    <row r="17" spans="1:27" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -13499,7 +13502,7 @@
       <c r="Z37" s="75"/>
       <c r="AA37" s="75"/>
     </row>
-    <row r="38" spans="1:29" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>115</v>
       </c>
@@ -23459,8 +23462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E00E336-61E1-4CD0-BED6-7CBD5524669C}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23480,7 +23483,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>11</v>
+        <v>834</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>785</v>
